--- a/data/DiagnoseMedication.xlsx
+++ b/data/DiagnoseMedication.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\figue\Desktop\Medical-Diagnosis-Expert-System-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\figue\Desktop\Medical-Diagnosis-Expert-System-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CE857-FD7F-4A49-8A7F-715D93B18A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0293416-AF9E-4D79-8692-F46883680CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diseases" sheetId="1" r:id="rId1"/>
@@ -98,18 +98,12 @@
     <t>Eyedrops or pills.</t>
   </si>
   <si>
-    <t>Heart Disease</t>
-  </si>
-  <si>
     <t>Heart disease describes a range of conditions that affect your heart. Diseases under the heart disease umbrella include blood vessel diseases, such as coronary artery disease; heart rhythm problems (arrhythmias); and heart defects you're born with (congenital heart defects), among others.</t>
   </si>
   <si>
     <t>ACE Inhibitors, Antiarrhythmics, Beta-Blocker Therapy, Digoxin, Diuretics.</t>
   </si>
   <si>
-    <t>Heat Stroke</t>
-  </si>
-  <si>
     <t>Heatstroke generally occurs when an individual has been too hot for too long, whether working, exercising, or simply sitting in a hot environment.</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Heart_Disease</t>
+  </si>
+  <si>
+    <t>Heat_Stroke</t>
   </si>
 </sst>
 </file>
@@ -1016,11 +1016,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="240.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="119.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1139,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,13 +1159,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,13 +1173,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,13 +1187,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,13 +1215,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,13 +1229,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1241,15 +1247,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1273,25 +1279,25 @@
         <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1299,46 +1305,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1346,46 +1352,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1393,46 +1399,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1440,46 +1446,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1487,46 +1493,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1534,46 +1540,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1581,46 +1587,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1628,46 +1634,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1675,46 +1681,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1722,46 +1728,46 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>47</v>
       </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1769,46 +1775,46 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1816,46 +1822,46 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1863,46 +1869,46 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
